--- a/dataset/哈利波特/output/角色统计/哈利波特与死亡圣器 第33章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与死亡圣器 第33章 角色统计.xlsx
@@ -70,6 +70,9 @@
     <t>斯内普</t>
   </si>
   <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
     <t>莱姆斯</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>神秘人</t>
-  </si>
-  <si>
-    <t>斯普劳特</t>
   </si>
 </sst>
 </file>
@@ -638,18 +638,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
